--- a/file_upload_example.xlsx
+++ b/file_upload_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="6320"/>
+    <workbookView windowWidth="16020" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -89,6 +89,23 @@
 The friends laughed and Lily patted Jasmin’s leg. “You can come out now,” giggled Lily. “The monster has gone, and your mum is here!”
 </t>
   </si>
+  <si>
+    <t>gr_218_mingpenguin</t>
+  </si>
+  <si>
+    <t>Ming got off the school bus and walked home next to Mum. Mrs Green had set the class a project for homework and Ming was cross.​
+“Mum, it’s not fair,” Ming complained. “Mrs Green has set us a project for homework, and we have to finish it by Monday. I wanted to spend the weekend playing with my toys or going to the park, not learning about dinosaurs!”​
+“Sorry,” said Mum. “You will need to work on your project.”​
+Ming told Mum all about the project. Everyone had to choose an unusual animal to write about.
+“The only unusual animal I can think of is a dinosaur and I don’t like dinosaurs,” he said sadly. “I would rather learn to play football!” Ming added.​
+“I know, we can go to the zoo!” said Mum.​
+On Saturday morning, Mum, Dad and Ming got into the car. Then they went to the zoo.​
+First, they saw giant pandas. Then they saw lions and tigers. After lunch, they saw the penguins.
+Ming woke up early on Sunday morning. He wanted to work on his project. Ming worked very hard all morning.​
+“We can go to the park after lunch,” Mum told Ming.​
+“No, thank you. I want to spend more time on my project. I can’t wait to show it to Mrs Green. I didn’t know that there are birds that cannot fly. Penguins are so cool.”​
+Ming was the first student in the classroom on Monday morning!</t>
+  </si>
 </sst>
 </file>
 
@@ -100,14 +117,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,153 +573,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1032,13 +1045,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="28.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="85.0727272727273" customWidth="1"/>
@@ -1052,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="319" spans="1:2">
+    <row r="2" ht="304.5" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="348" spans="1:2">
+    <row r="3" ht="304.5" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:2">
+    <row r="4" ht="406" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1076,6 +1089,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" ht="261" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
